--- a/data/trans_camb/P16A05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,81</t>
+          <t>-2,08; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,85</t>
+          <t>-1,71; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,78</t>
+          <t>-1,84; 2,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 2,98</t>
+          <t>-3,18; 2,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,31</t>
+          <t>-3,18; 2,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,61</t>
+          <t>-3,57; 1,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,05</t>
+          <t>-1,86; 2,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,26</t>
+          <t>-1,52; 2,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,58</t>
+          <t>-1,8; 1,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 126,0</t>
+          <t>-52,87; 148,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 195,97</t>
+          <t>-39,94; 175,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 129,56</t>
+          <t>-45,2; 128,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 136,97</t>
+          <t>-63,7; 145,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 114,04</t>
+          <t>-63,07; 139,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,4; 78,87</t>
+          <t>-64,04; 81,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 83,38</t>
+          <t>-44,19; 98,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 89,53</t>
+          <t>-35,04; 93,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 65,68</t>
+          <t>-40,57; 58,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,2</t>
+          <t>0,08; 5,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,86</t>
+          <t>-0,56; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,79</t>
+          <t>-0,35; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,58</t>
+          <t>-1,73; 4,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,03</t>
+          <t>-3,05; 3,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,74</t>
+          <t>-0,76; 4,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,83</t>
+          <t>-0,1; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,58</t>
+          <t>-1,02; 2,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,56</t>
+          <t>-0,02; 3,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 836,84</t>
+          <t>-15,27; 775,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 527,46</t>
+          <t>-40,3; 539,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 623,28</t>
+          <t>-30,21; 587,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 163,0</t>
+          <t>-33,15; 167,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 107,74</t>
+          <t>-53,91; 112,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 183,23</t>
+          <t>-14,37; 204,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 202,7</t>
+          <t>-6,28; 202,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 133,52</t>
+          <t>-33,44; 141,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 183,9</t>
+          <t>-1,48; 187,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,35</t>
+          <t>0,09; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,3</t>
+          <t>-1,44; 2,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,76</t>
+          <t>-1,94; 4,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 10,4</t>
+          <t>-0,21; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,82</t>
+          <t>-0,82; 9,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 10,56</t>
+          <t>0,99; 10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,08</t>
+          <t>0,99; 5,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,49</t>
+          <t>-0,67; 3,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,5</t>
+          <t>-1,84; 5,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 249,93</t>
+          <t>-2,45; 268,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 152,56</t>
+          <t>-44,35; 136,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 207,73</t>
+          <t>-51,53; 231,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 413,87</t>
+          <t>-11,18; 346,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 386,0</t>
+          <t>-23,09; 399,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 417,32</t>
+          <t>6,32; 466,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,58; 225,92</t>
+          <t>18,45; 232,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 154,88</t>
+          <t>-19,86; 140,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 218,28</t>
+          <t>-40,88; 209,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,89</t>
+          <t>-0,85; 1,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,59</t>
+          <t>-0,24; 2,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,24</t>
+          <t>0,38; 3,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,87</t>
+          <t>-1,11; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,77</t>
+          <t>-0,34; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,71</t>
+          <t>-2,83; 3,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,33</t>
+          <t>-0,23; 2,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,14</t>
+          <t>0,47; 3,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,1</t>
+          <t>-0,13; 3,08</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 93,88</t>
+          <t>-28,09; 91,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 119,21</t>
+          <t>-9,38; 134,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 157,73</t>
+          <t>8,89; 162,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 94,57</t>
+          <t>-17,41; 97,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 111,64</t>
+          <t>-4,85; 122,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 80,52</t>
+          <t>-41,36; 84,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 77,09</t>
+          <t>-5,96; 78,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 102,44</t>
+          <t>10,62; 107,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 102,36</t>
+          <t>-3,41; 98,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,17</t>
+          <t>-3,99; 1,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,91</t>
+          <t>-2,61; 2,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,37</t>
+          <t>-0,61; 5,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,79</t>
+          <t>-1,24; 4,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,66</t>
+          <t>1,49; 7,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,1</t>
+          <t>0,26; 7,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,37</t>
+          <t>-1,47; 2,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,53</t>
+          <t>0,43; 4,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,71</t>
+          <t>0,87; 5,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 52,52</t>
+          <t>-68,31; 43,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 128,74</t>
+          <t>-46,09; 130,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 224,31</t>
+          <t>-15,32; 222,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 92,93</t>
+          <t>-15,56; 85,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,21; 143,76</t>
+          <t>16,95; 149,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,75; 134,26</t>
+          <t>2,85; 131,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 52,21</t>
+          <t>-21,59; 55,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,74; 101,06</t>
+          <t>4,6; 94,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,87; 118,74</t>
+          <t>13,84; 121,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,47</t>
+          <t>-2,06; 2,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,37</t>
+          <t>-2,04; 2,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,19</t>
+          <t>-1,27; 4,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,06</t>
+          <t>-0,27; 3,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,19</t>
+          <t>-0,39; 4,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,0</t>
+          <t>2,62; 7,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,24</t>
+          <t>-0,18; 3,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,22</t>
+          <t>-0,32; 3,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,8</t>
+          <t>2,2; 5,74</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-82,52; 420,4</t>
+          <t>-87,87; 475,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-70,38; 802,66</t>
+          <t>-66,6; 764,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 89,56</t>
+          <t>-4,99; 83,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 90,56</t>
+          <t>-6,76; 86,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>38,66; 151,15</t>
+          <t>38,59; 144,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 84,7</t>
+          <t>-3,38; 81,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 82,69</t>
+          <t>-6,05; 82,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,84; 142,69</t>
+          <t>40,38; 141,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,59</t>
+          <t>-0,18; 1,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,71</t>
+          <t>0,04; 1,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,56</t>
+          <t>0,42; 2,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,09</t>
+          <t>0,71; 2,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,54</t>
+          <t>1,15; 3,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,92</t>
+          <t>1,13; 4,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,05</t>
+          <t>0,53; 2,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,39</t>
+          <t>0,89; 2,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,99</t>
+          <t>1,05; 2,97</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 73,78</t>
+          <t>-6,27; 68,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 76,68</t>
+          <t>0,1; 80,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13,79; 115,58</t>
+          <t>15,69; 108,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>11,97; 66,28</t>
+          <t>12,0; 63,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>17,9; 74,52</t>
+          <t>19,3; 74,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,74; 82,24</t>
+          <t>20,57; 84,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,99; 56,4</t>
+          <t>13,0; 56,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>21,25; 65,36</t>
+          <t>20,99; 65,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>26,42; 82,58</t>
+          <t>25,01; 81,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
